--- a/Financial Services/Intercontinental Exchange.xlsx
+++ b/Financial Services/Intercontinental Exchange.xlsx
@@ -1,34 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516B4DF1-5862-A845-BD97-2D8143B83DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAAFEE6-A190-7643-93A4-13C940395918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$3:$X$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$B$106:$X$106</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$19:$X$19</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$3:$X$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$B$106:$X$106</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$19:$X$19</definedName>
-  </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1021,6 +1008,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1032,12 +1025,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2399,36 +2386,39 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>125.36499999999999</v>
+    <v>113.07</v>
     <v>88.6</v>
-    <v>0.93200000000000005</v>
-    <v>0.85</v>
-    <v>7.9080000000000001E-3</v>
+    <v>0.93620000000000003</v>
+    <v>-1.31</v>
+    <v>-1.2142E-2</v>
+    <v>0.39</v>
+    <v>3.6589999999999999E-3</v>
     <v>USD</v>
     <v>Intercontinental Exchange, Inc. is a provider of marketplace infrastructure, data services and technology solutions to a range of customers, including financial institutions, corporations and government entities. The Company operates through three segments: Exchanges, Fixed Income and Data Services and Mortgage Technology. The Exchanges segment operates regulated marketplaces for the listing, trading and clearing of an array of derivatives contracts and financial securities. The Fixed Income and Data Services segment provides fixed income pricing, reference data, indices, analytics and execution services, as well as global credit default swaps (CDS), clearing and multi-asset class data delivery solutions. The Mortgage Technology segment provides a technology platform that offers customers, digital workflow tools that aim to address the inefficiencies that exist in the United States residential mortgage market, from application through closing and the secondary market.</v>
-    <v>8911</v>
+    <v>9010</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
-    <v>SUITE 500, 2100 RIVEREDGE PARKWAY, ATLANTA, GA, 30328 US</v>
-    <v>109.1</v>
+    <v>5660 New Northside Drive, Third Floor, ATLANTA, GA, 30328 US</v>
+    <v>107.59</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>45035.958333344533</v>
+    <v>45070.958333344533</v>
     <v>0</v>
-    <v>107.34</v>
-    <v>60639501432</v>
+    <v>106.25</v>
+    <v>59670614202</v>
     <v>INTERCONTINENTAL EXCHANGE, INC.</v>
     <v>INTERCONTINENTAL EXCHANGE, INC.</v>
-    <v>107.34</v>
-    <v>42.135100000000001</v>
-    <v>107.49</v>
-    <v>108.34</v>
-    <v>559714800</v>
+    <v>107.4</v>
+    <v>41.407699999999998</v>
+    <v>107.89</v>
+    <v>106.58</v>
+    <v>106.97</v>
+    <v>559866900</v>
     <v>ICE</v>
     <v>INTERCONTINENTAL EXCHANGE, INC. (XNYS:ICE)</v>
-    <v>1580818</v>
-    <v>2851511</v>
+    <v>1457580</v>
+    <v>2126743</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2460,6 +2450,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2480,6 +2472,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2496,7 +2489,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2507,13 +2500,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2579,13 +2575,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2630,6 +2632,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2637,6 +2642,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2998,10 +3006,10 @@
   <dimension ref="A1:AG118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB97" sqref="AB97"/>
+      <selection pane="bottomRight" activeCell="Z99" sqref="Z99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4455,15 +4463,15 @@
       </c>
       <c r="AE16" s="30">
         <f>AF101/X3</f>
-        <v>6.2930159227895395</v>
+        <v>6.1924672272727275</v>
       </c>
       <c r="AF16" s="30">
         <f>AF101/X28</f>
-        <v>41.936031419087136</v>
+        <v>41.265984925311201</v>
       </c>
       <c r="AG16" s="31">
         <f>AF101/X106</f>
-        <v>18.215530619405225</v>
+        <v>17.924486092520276</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -9513,10 +9521,10 @@
       <c r="X83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE83" s="59" t="s">
+      <c r="AE83" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="AF83" s="60"/>
+      <c r="AF83" s="62"/>
     </row>
     <row r="84" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9591,10 +9599,10 @@
       <c r="X84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE84" s="61" t="s">
+      <c r="AE84" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="AF84" s="62"/>
+      <c r="AF84" s="64"/>
     </row>
     <row r="85" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -10340,10 +10348,10 @@
       <c r="X93" s="1">
         <v>68000000</v>
       </c>
-      <c r="AE93" s="61" t="s">
+      <c r="AE93" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="AF93" s="62"/>
+      <c r="AF93" s="64"/>
     </row>
     <row r="94" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10503,7 +10511,7 @@
       </c>
       <c r="AF95" s="38" cm="1">
         <f t="array" ref="AF95">_FV(A1,"Beta")</f>
-        <v>0.93200000000000005</v>
+        <v>0.93620000000000003</v>
       </c>
     </row>
     <row r="96" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10664,7 +10672,7 @@
       </c>
       <c r="AF97" s="36">
         <f>(AF94)+((AF95)*(AF96-AF94))</f>
-        <v>8.1072600000000009E-2</v>
+        <v>8.1253409999999998E-2</v>
       </c>
     </row>
     <row r="98" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10740,10 +10748,10 @@
       <c r="X98" s="1">
         <v>-853000000</v>
       </c>
-      <c r="AE98" s="61" t="s">
+      <c r="AE98" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="AF98" s="62"/>
+      <c r="AF98" s="64"/>
     </row>
     <row r="99" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10904,7 +10912,7 @@
       </c>
       <c r="AF100" s="34">
         <f>AF99/AF103</f>
-        <v>0.23256196147554936</v>
+        <v>0.23544903501437353</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10985,7 +10993,7 @@
       </c>
       <c r="AF101" s="39" cm="1">
         <f t="array" ref="AF101">_FV(A1,"Market cap",TRUE)</f>
-        <v>60639501432</v>
+        <v>59670614202</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11066,7 +11074,7 @@
       </c>
       <c r="AF102" s="34">
         <f>AF101/AF103</f>
-        <v>0.76743803852445058</v>
+        <v>0.76455096498562647</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11147,7 +11155,7 @@
       </c>
       <c r="AF103" s="40">
         <f>AF99+AF101</f>
-        <v>79015501432</v>
+        <v>78046614202</v>
       </c>
     </row>
     <row r="104" spans="1:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11223,10 +11231,10 @@
       <c r="X104" s="11">
         <v>150343000000</v>
       </c>
-      <c r="AE104" s="61" t="s">
+      <c r="AE104" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="AF104" s="62"/>
+      <c r="AF104" s="64"/>
     </row>
     <row r="105" spans="1:32" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -11332,7 +11340,7 @@
       </c>
       <c r="AF105" s="26">
         <f>(AF100*AF92)+(AF102*AF97)</f>
-        <v>6.8677442734948413E-2</v>
+        <v>6.8661805082417746E-2</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11470,7 +11478,7 @@
       <c r="AB107" s="42"/>
       <c r="AC107" s="45">
         <f>AC106*(1+AF107)/(AF108-AF107)</f>
-        <v>114549068556.36386</v>
+        <v>114590094769.74223</v>
       </c>
       <c r="AD107" s="46" t="s">
         <v>148</v>
@@ -11501,7 +11509,7 @@
       </c>
       <c r="AC108" s="45">
         <f>AC107+AC106</f>
-        <v>119430249417.05875</v>
+        <v>119471275630.43712</v>
       </c>
       <c r="AD108" s="46" t="s">
         <v>144</v>
@@ -11511,14 +11519,14 @@
       </c>
       <c r="AF108" s="50">
         <f>AF105</f>
-        <v>6.8677442734948413E-2</v>
+        <v>6.8661805082417746E-2</v>
       </c>
     </row>
     <row r="109" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="Y109" s="63" t="s">
+      <c r="Y109" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="Z109" s="64"/>
+      <c r="Z109" s="60"/>
     </row>
     <row r="110" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="Y110" s="51" t="s">
@@ -11526,7 +11534,7 @@
       </c>
       <c r="Z110" s="39">
         <f>NPV(AF108,Y108,Z108,AA108,AB108,AC108)</f>
-        <v>99338437044.555923</v>
+        <v>99374642906.037277</v>
       </c>
     </row>
     <row r="111" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11553,7 +11561,7 @@
       </c>
       <c r="Z113" s="39">
         <f>Z110+Z111-Z112</f>
-        <v>82761437044.555923</v>
+        <v>82797642906.037277</v>
       </c>
     </row>
     <row r="114" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -11571,7 +11579,7 @@
       </c>
       <c r="Z115" s="54">
         <f>Z113/Z114</f>
-        <v>156.30038503608458</v>
+        <v>156.36876217273402</v>
       </c>
     </row>
     <row r="116" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -11580,7 +11588,7 @@
       </c>
       <c r="Z116" s="55" cm="1">
         <f t="array" ref="Z116">_FV(A1,"Price")</f>
-        <v>108.34</v>
+        <v>106.58</v>
       </c>
     </row>
     <row r="117" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -11589,7 +11597,7 @@
       </c>
       <c r="Z117" s="57">
         <f>Z115/Z116-1</f>
-        <v>0.44268400439435651</v>
+        <v>0.46714920409771077</v>
       </c>
     </row>
     <row r="118" spans="25:26" ht="20" x14ac:dyDescent="0.25">
